--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\cs342Proj5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD16522D-878D-40A1-96A1-C156E9E7DF3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9D5E6-6F00-4A9A-A2EC-C5342D80AD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Weekly Sprint Sheet</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Project: 5</t>
+  </si>
+  <si>
+    <t>implement data base that will have all the questions and answers</t>
+  </si>
+  <si>
+    <t>john almazan</t>
+  </si>
+  <si>
+    <t>implement game rules, like giving points and deciding winner</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21.6"/>
@@ -545,8 +554,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>

--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\cs342Proj5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9D5E6-6F00-4A9A-A2EC-C5342D80AD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29907469-B3A1-4813-8879-CB9089E1D918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Weekly Sprint Sheet</t>
   </si>
@@ -94,13 +94,19 @@
     <t>Project: 5</t>
   </si>
   <si>
-    <t>implement data base that will have all the questions and answers</t>
-  </si>
-  <si>
     <t>john almazan</t>
   </si>
   <si>
     <t>implement game rules, like giving points and deciding winner</t>
+  </si>
+  <si>
+    <t>created the repository</t>
+  </si>
+  <si>
+    <t>made the project description</t>
+  </si>
+  <si>
+    <t>implement data base that can hold questions and answers</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21.6"/>
@@ -555,29 +561,49 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1"/>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>

--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\cs342Proj5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\cs342Proj5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29907469-B3A1-4813-8879-CB9089E1D918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF31660-A0F6-47FA-82BF-7B826E597767}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14286" yWindow="924" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Weekly Sprint Sheet</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>implement data base that can hold questions and answers</t>
+  </si>
+  <si>
+    <t>attended group meeting came up with ideas</t>
+  </si>
+  <si>
+    <t>Work on Gui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,11 +462,11 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="21.6"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="18.3" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.69921875" style="4" customWidth="1"/>
@@ -472,7 +478,7 @@
     <col min="8" max="16384" width="10.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.4">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -494,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.4">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -506,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.4">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D4" s="5"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -515,7 +521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.4">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D5" s="5"/>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -524,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.4">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -536,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="54">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -559,8 +565,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -571,7 +577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -582,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -593,7 +599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -604,54 +610,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="17" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="18" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="19" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="20" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="21" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="22" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1"/>
-    <row r="23" spans="4:5" s="2" customFormat="1"/>
-    <row r="32" spans="4:5" ht="29.4">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="4:5" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="4:5" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="4:5" ht="27">
+    <row r="33" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="4:5" ht="27">
+    <row r="34" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="4:5" ht="27">
+    <row r="35" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="4:5" ht="27">
+    <row r="36" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="4:5" ht="27">
+    <row r="37" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="4:5" ht="27">
+    <row r="38" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="4:5" ht="27">
+    <row r="39" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="4:5" ht="27">
+    <row r="40" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="4:5" ht="27">
+    <row r="41" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>

--- a/teamSprintSheet.xlsx
+++ b/teamSprintSheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\cs342Proj5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF31660-A0F6-47FA-82BF-7B826E597767}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14286" yWindow="924" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19194" windowHeight="7362"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Weekly Sprint Sheet</t>
   </si>
@@ -34,12 +28,18 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Project: 5</t>
+  </si>
+  <si>
     <t>Danny Belmonte</t>
   </si>
   <si>
     <t>dbelmo2@uic.edu</t>
   </si>
   <si>
+    <t>Week Of: 4/19/2019</t>
+  </si>
+  <si>
     <t>Andrew Ciepiela</t>
   </si>
   <si>
@@ -88,24 +88,18 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>Week Of: 4/19/2019</t>
-  </si>
-  <si>
-    <t>Project: 5</t>
-  </si>
-  <si>
     <t>john almazan</t>
   </si>
   <si>
+    <t>created the repository</t>
+  </si>
+  <si>
+    <t>made the project description</t>
+  </si>
+  <si>
     <t>implement game rules, like giving points and deciding winner</t>
   </si>
   <si>
-    <t>created the repository</t>
-  </si>
-  <si>
-    <t>made the project description</t>
-  </si>
-  <si>
     <t>implement data base that can hold questions and answers</t>
   </si>
   <si>
@@ -113,13 +107,28 @@
   </si>
   <si>
     <t>Work on Gui</t>
+  </si>
+  <si>
+    <t>huihan Hu</t>
+  </si>
+  <si>
+    <t>work on game database</t>
+  </si>
+  <si>
+    <t>work on GUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,8 +174,151 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Gill Sans MT"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Gill Sans MT"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -185,8 +337,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,10 +547,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
@@ -231,7 +808,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,18 +821,61 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,35 +1070,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="18.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6969696969697" defaultRowHeight="18.15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.6969696969697" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.1969696969697" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.1969696969697" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.1969696969697" style="4" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="42.69921875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.69921875" style="4"/>
+    <col min="7" max="7" width="42.6969696969697" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.6969696969697" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="1" ht="25.95" spans="4:7">
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
@@ -489,84 +1108,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="2" ht="25.95" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="25.95" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="25.95" spans="4:7">
       <c r="D4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="25.95" spans="4:7">
       <c r="D5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="25.95" spans="1:7">
       <c r="A6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="3" customFormat="1" ht="60" customHeight="1" spans="2:5">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -574,10 +1193,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="60" customHeight="1" spans="2:5">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -585,10 +1204,10 @@
         <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="60" customHeight="1" spans="2:6">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -596,10 +1215,10 @@
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="60" customHeight="1" spans="2:6">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -610,12 +1229,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" s="3" customFormat="1" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="3">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -624,65 +1243,86 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="4:5" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="4:5" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="4:5" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="14" s="3" customFormat="1" ht="60" customHeight="1" spans="2:6">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="60" customHeight="1" spans="2:6">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="17" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="18" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="19" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="20" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="21" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="22" s="3" customFormat="1" ht="60" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="17.4"/>
+    <row r="32" ht="25.95" spans="4:5">
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="33" ht="22.95" spans="4:5">
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="34" ht="22.95" spans="4:5">
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="35" ht="22.95" spans="4:5">
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="36" ht="22.95" spans="4:5">
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="37" ht="22.95" spans="4:5">
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="38" ht="22.95" spans="4:5">
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="39" ht="22.95" spans="4:5">
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="40" ht="22.95" spans="4:5">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="4:5" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="41" ht="22.95" spans="4:5">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId1" display="jalmaz3@uic.edu"/>
+    <hyperlink ref="G3" r:id="rId2" display="aciepi3@uic.edu"/>
+    <hyperlink ref="G2" r:id="rId3" display="dbelmo2@uic.edu"/>
+    <hyperlink ref="G5" r:id="rId4" display="mlemus6@uic.edu"/>
+    <hyperlink ref="G6" r:id="rId5" display="hhu25@uic.edu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape"/>
+  <pageSetup paperSize="1" scale="46" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>